--- a/usaspending_api/data/naics_archive/2-digit_2012_Codes.xlsx
+++ b/usaspending_api/data/naics_archive/2-digit_2012_Codes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzito/Documents/DATA/usaspending-api/usaspending_api/data/naics_archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{000733EE-E9C5-F543-9E2A-4C0557C0391B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C594DB-8F36-3543-A6B1-B3E8CCFE18A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="21960" windowHeight="16000"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="21960" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_2012_title_description_coun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -5013,13 +5005,13 @@
     <t>Public Administration</t>
   </si>
   <si>
-    <t>31,32,33</t>
+    <t>31-33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -5095,8 +5087,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5431,11 +5423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
